--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED33C88B-655A-4659-A9E2-B319339AB162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30FD9832-5523-49F8-9F8F-F4BB4EBCEA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1728,10 +1728,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1c0131h18,S1f0407h10,S1f0407h13,S1g0504h09,S1g0504h15,S3j1224h07,S3j1224h18,S1b0130h11,S1d0217h17,S2h1006h07,S2h1006h13,S3aH4,S3j1224h14,S1aH3,S1d0217h09,S1d0217h14,S1e0306h11,S1g0504h10,S2h1006h10,S2i1007h10,S1aH4,S1c0131h10,S1d0217h07,S1e0306h16,S1f0407h14,S1g0504h14,S2aH2,S2i1007h09,S2i1007h18,S1b0130h12,S1b0130h13,S1c0131h11,S1f0407h09,S1g0504h11,S2h1006h08,S2h1006h18,S1c0131h16,S1e0306h15,S1e0306h17,S1f0407h08,S1g0504h18,S2i1007h16,S2i1007h17,S1b0130h08,S1c0131h15,S1d0217h11,S1d0217h12,S1d0217h18,S2h1006h15,S3aH2,S3j1224h08,S3j1224h10,S3j1224h13,S1c0131h07,S1d0217h13,S1e0306h12,S1f0407h11,S1g0504h13,S1g0504h17,S2i1007h07,S2i1007h15,S1b0130h18,S1c0131h13,S1f0407h17,S2h1006h12,S2i1007h08,S2i1007h13,S3j1224h12,S3j1224h15,S1b0130h14,S1b0130h16,S1c0131h08,S2h1006h14,S3aH3,S1b0130h10,S1c0131h14,S1c0131h17,S1e0306h14,S1f0407h07,S1f0407h16,S2aH6,S3aH5,S1aH2,S1b0130h07,S1d0217h08,S1f0407h12,S2aH3,S3aH6,S1aH6,S1b0130h17,S2h1006h09,S2i1007h12,S3j1224h09,S3j1224h11,S3j1224h16,S1b0130h09,S1c0131h12,S1d0217h10,S1d0217h15,S1d0217h16,S1e0306h08,S1e0306h09,S1e0306h18,S2h1006h16,S2h1006h17,S2i1007h11,S1c0131h09,S1e0306h13,S1f0407h15,S1g0504h07,S1g0504h08,S1g0504h12,S2h1006h11,S3j1224h17,S1aH5,S1b0130h15,S1e0306h07,S1e0306h10,S1f0407h18,S1g0504h16,S2aH4,S2aH5,S2i1007h14</t>
-  </si>
-  <si>
-    <t>S1c0131h02,S1g0504h19,S2h1006h21,S2i1007h21,S1e0306h03,S1g0504h03,S3j1224h24,S1aH7,S1c0131h22,S1d0217h05,S1d0217h19,S1e0306h04,S1f0407h05,S1g0504h01,S2h1006h01,S2i1007h06,S2i1007h19,S1f0407h01,S2i1007h05,S3j1224h02,S3j1224h06,S1aH1,S1f0407h02,S1f0407h24,S1g0504h23,S1g0504h24,S2aH7,S2i1007h03,S3j1224h22,S1b0130h22,S1c0131h06,S1c0131h24,S1d0217h21,S1f0407h06,S1f0407h20,S1f0407h22,S1g0504h02,S2aH1,S3aH7,S3j1224h01,S1b0130h23,S1c0131h01,S1c0131h19,S1d0217h04,S1d0217h20,S1f0407h23,S3aH8,S1b0130h21,S1c0131h21,S1d0217h01,S1f0407h04,S1g0504h04,S2i1007h23,S1c0131h04,S1d0217h03,S1d0217h06,S1e0306h21,S1e0306h23,S1g0504h05,S3j1224h23,S1c0131h23,S1d0217h24,S1e0306h05,S1e0306h20,S1e0306h24,S1g0504h20,S3j1224h20,S1aH8,S1b0130h03,S1b0130h24,S1c0131h05,S1c0131h20,S1d0217h22,S1f0407h19,S1f0407h21,S2h1006h20,S3j1224h19,S1b0130h20,S2h1006h02,S2h1006h06,S2h1006h19,S2i1007h20,S3j1224h04,S1b0130h01,S1b0130h05,S1e0306h02,S2h1006h23,S2h1006h24,S2i1007h01,S3j1224h21,S1b0130h02,S1b0130h06,S1d0217h02,S1d0217h23,S1g0504h22,S3aH1,S3j1224h05,S1g0504h06,S1g0504h21,S2aH8,S2h1006h03,S2h1006h04,S2i1007h24,S3j1224h03,S1b0130h04,S1b0130h19,S1c0131h03,S1e0306h01,S1e0306h06,S1e0306h19,S1e0306h22,S1f0407h03,S2h1006h05,S2h1006h22,S2i1007h02,S2i1007h04,S2i1007h22</t>
+    <t>S1c0131h09,S1e0306h13,S1f0407h15,S1g0504h07,S1g0504h08,S1g0504h12,S2h1006h11,S3j1224h17,S1aH6,S1b0130h17,S2h1006h09,S2i1007h12,S3j1224h09,S3j1224h11,S3j1224h16,S1aH4,S1c0131h10,S1d0217h07,S1e0306h16,S1f0407h14,S1g0504h14,S2aH2,S2i1007h09,S2i1007h18,S1aH5,S1b0130h15,S1e0306h07,S1e0306h10,S1f0407h18,S1g0504h16,S2aH4,S2aH5,S2i1007h14,S1b0130h12,S1b0130h13,S1c0131h11,S1f0407h09,S1g0504h11,S2h1006h08,S2h1006h18,S1b0130h08,S1c0131h15,S1d0217h11,S1d0217h12,S1d0217h18,S2h1006h15,S3aH2,S3j1224h08,S3j1224h10,S3j1224h13,S1aH3,S1d0217h09,S1d0217h14,S1e0306h11,S1g0504h10,S2h1006h10,S2i1007h10,S1c0131h16,S1e0306h15,S1e0306h17,S1f0407h08,S1g0504h18,S2i1007h16,S2i1007h17,S1c0131h18,S1f0407h10,S1f0407h13,S1g0504h09,S1g0504h15,S3j1224h07,S3j1224h18,S1b0130h18,S1c0131h13,S1f0407h17,S2h1006h12,S2i1007h08,S2i1007h13,S3j1224h12,S3j1224h15,S1aH2,S1b0130h07,S1d0217h08,S1f0407h12,S2aH3,S3aH6,S1b0130h09,S1c0131h12,S1d0217h10,S1d0217h15,S1d0217h16,S1e0306h08,S1e0306h09,S1e0306h18,S2h1006h16,S2h1006h17,S2i1007h11,S1b0130h10,S1c0131h14,S1c0131h17,S1e0306h14,S1f0407h07,S1f0407h16,S2aH6,S3aH5,S1b0130h14,S1b0130h16,S1c0131h08,S2h1006h14,S3aH3,S1c0131h07,S1d0217h13,S1e0306h12,S1f0407h11,S1g0504h13,S1g0504h17,S2i1007h07,S2i1007h15,S1b0130h11,S1d0217h17,S2h1006h07,S2h1006h13,S3aH4,S3j1224h14</t>
+  </si>
+  <si>
+    <t>S1g0504h06,S1g0504h21,S2aH8,S2h1006h03,S2h1006h04,S2i1007h24,S3j1224h03,S1b0130h01,S1b0130h05,S1e0306h02,S2h1006h23,S2h1006h24,S2i1007h01,S3j1224h21,S1f0407h01,S2i1007h05,S3j1224h02,S3j1224h06,S1b0130h04,S1b0130h19,S1c0131h03,S1e0306h01,S1e0306h06,S1e0306h19,S1e0306h22,S1f0407h03,S2h1006h05,S2h1006h22,S2i1007h02,S2i1007h04,S2i1007h22,S1aH1,S1f0407h02,S1f0407h24,S1g0504h23,S1g0504h24,S2aH7,S2i1007h03,S3j1224h22,S1b0130h23,S1c0131h01,S1c0131h19,S1d0217h04,S1d0217h20,S1f0407h23,S3aH8,S1aH7,S1c0131h22,S1d0217h05,S1d0217h19,S1e0306h04,S1f0407h05,S1g0504h01,S2h1006h01,S2i1007h06,S2i1007h19,S1b0130h22,S1c0131h06,S1c0131h24,S1d0217h21,S1f0407h06,S1f0407h20,S1f0407h22,S1g0504h02,S2aH1,S3aH7,S3j1224h01,S1c0131h02,S1g0504h19,S2h1006h21,S2i1007h21,S1c0131h04,S1d0217h03,S1d0217h06,S1e0306h21,S1e0306h23,S1g0504h05,S3j1224h23,S1b0130h20,S2h1006h02,S2h1006h06,S2h1006h19,S2i1007h20,S3j1224h04,S1b0130h02,S1b0130h06,S1d0217h02,S1d0217h23,S1g0504h22,S3aH1,S3j1224h05,S1aH8,S1b0130h03,S1b0130h24,S1c0131h05,S1c0131h20,S1d0217h22,S1f0407h19,S1f0407h21,S2h1006h20,S3j1224h19,S1c0131h23,S1d0217h24,S1e0306h05,S1e0306h20,S1e0306h24,S1g0504h20,S3j1224h20,S1b0130h21,S1c0131h21,S1d0217h01,S1f0407h04,S1g0504h04,S2i1007h23,S1e0306h03,S1g0504h03,S3j1224h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1759,10 +1759,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1970,7 +1969,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1992,16 +1991,14 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -2046,7 +2043,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E4062F-4C08-6306-F85C-DFA20E572C38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16EAF755-6FE0-5F94-B360-46683637D03A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2451,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1c0131h02,S1g0504h19,S2h1006h21,S2i1007h21,S1e0306h03,S1g0504h03,S3j1224h24,S1aH7,S1c0131h22,S1d0217h05,S1d0217h19,S1e0306h04,S1f0407h05,S1g0504h01,S2h1006h01,S2i1007h06,S2i1007h19,S1f0407h01,S2i1007h05,S3j1224h02,S3j1224h06,S1aH1,S1f0407h02,S1f0407h24,S1g0504h23,S1g0504h24,S2aH7,S2i1007h03,S3j1224h22,S1b0130h22,S1c0131h06,S1c0131h24,S1d0217h21,S1f0407h06,S1f0407h20,S1f0407h22,S1g0504h02,S2aH1,S3aH7,S3j1224h01,S1b0130h23,S1c0131h01,S1c0131h19,S1d0217h04,S1d0217h20,S1f0407h23,S3aH8,S1b0130h21,S1c0131h21,S1d0217h01,S1f0407h04,S1g0504h04,S2i1007h23,S1c0131h04,S1d0217h03,S1d0217h06,S1e0306h21,S1e0306h23,S1g0504h05,S3j1224h23,S1c0131h23,S1d0217h24,S1e0306h05,S1e0306h20,S1e0306h24,S1g0504h20,S3j1224h20,S1aH8,S1b0130h03,S1b0130h24,S1c0131h05,S1c0131h20,S1d0217h22,S1f0407h19,S1f0407h21,S2h1006h20,S3j1224h19,S1b0130h20,S2h1006h02,S2h1006h06,S2h1006h19,S2i1007h20,S3j1224h04,S1b0130h01,S1b0130h05,S1e0306h02,S2h1006h23,S2h1006h24,S2i1007h01,S3j1224h21,S1b0130h02,S1b0130h06,S1d0217h02,S1d0217h23,S1g0504h22,S3aH1,S3j1224h05,S1g0504h06,S1g0504h21,S2aH8,S2h1006h03,S2h1006h04,S2i1007h24,S3j1224h03,S1b0130h04,S1b0130h19,S1c0131h03,S1e0306h01,S1e0306h06,S1e0306h19,S1e0306h22,S1f0407h03,S2h1006h05,S2h1006h22,S2i1007h02,S2i1007h04,S2i1007h22</v>
+        <v>S1g0504h06,S1g0504h21,S2aH8,S2h1006h03,S2h1006h04,S2i1007h24,S3j1224h03,S1b0130h01,S1b0130h05,S1e0306h02,S2h1006h23,S2h1006h24,S2i1007h01,S3j1224h21,S1f0407h01,S2i1007h05,S3j1224h02,S3j1224h06,S1b0130h04,S1b0130h19,S1c0131h03,S1e0306h01,S1e0306h06,S1e0306h19,S1e0306h22,S1f0407h03,S2h1006h05,S2h1006h22,S2i1007h02,S2i1007h04,S2i1007h22,S1aH1,S1f0407h02,S1f0407h24,S1g0504h23,S1g0504h24,S2aH7,S2i1007h03,S3j1224h22,S1b0130h23,S1c0131h01,S1c0131h19,S1d0217h04,S1d0217h20,S1f0407h23,S3aH8,S1aH7,S1c0131h22,S1d0217h05,S1d0217h19,S1e0306h04,S1f0407h05,S1g0504h01,S2h1006h01,S2i1007h06,S2i1007h19,S1b0130h22,S1c0131h06,S1c0131h24,S1d0217h21,S1f0407h06,S1f0407h20,S1f0407h22,S1g0504h02,S2aH1,S3aH7,S3j1224h01,S1c0131h02,S1g0504h19,S2h1006h21,S2i1007h21,S1c0131h04,S1d0217h03,S1d0217h06,S1e0306h21,S1e0306h23,S1g0504h05,S3j1224h23,S1b0130h20,S2h1006h02,S2h1006h06,S2h1006h19,S2i1007h20,S3j1224h04,S1b0130h02,S1b0130h06,S1d0217h02,S1d0217h23,S1g0504h22,S3aH1,S3j1224h05,S1aH8,S1b0130h03,S1b0130h24,S1c0131h05,S1c0131h20,S1d0217h22,S1f0407h19,S1f0407h21,S2h1006h20,S3j1224h19,S1c0131h23,S1d0217h24,S1e0306h05,S1e0306h20,S1e0306h24,S1g0504h20,S3j1224h20,S1b0130h21,S1c0131h21,S1d0217h01,S1f0407h04,S1g0504h04,S2i1007h23,S1e0306h03,S1g0504h03,S3j1224h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2486,7 +2483,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1c0131h18,S1f0407h10,S1f0407h13,S1g0504h09,S1g0504h15,S3j1224h07,S3j1224h18,S1b0130h11,S1d0217h17,S2h1006h07,S2h1006h13,S3aH4,S3j1224h14,S1aH3,S1d0217h09,S1d0217h14,S1e0306h11,S1g0504h10,S2h1006h10,S2i1007h10,S1aH4,S1c0131h10,S1d0217h07,S1e0306h16,S1f0407h14,S1g0504h14,S2aH2,S2i1007h09,S2i1007h18,S1b0130h12,S1b0130h13,S1c0131h11,S1f0407h09,S1g0504h11,S2h1006h08,S2h1006h18,S1c0131h16,S1e0306h15,S1e0306h17,S1f0407h08,S1g0504h18,S2i1007h16,S2i1007h17,S1b0130h08,S1c0131h15,S1d0217h11,S1d0217h12,S1d0217h18,S2h1006h15,S3aH2,S3j1224h08,S3j1224h10,S3j1224h13,S1c0131h07,S1d0217h13,S1e0306h12,S1f0407h11,S1g0504h13,S1g0504h17,S2i1007h07,S2i1007h15,S1b0130h18,S1c0131h13,S1f0407h17,S2h1006h12,S2i1007h08,S2i1007h13,S3j1224h12,S3j1224h15,S1b0130h14,S1b0130h16,S1c0131h08,S2h1006h14,S3aH3,S1b0130h10,S1c0131h14,S1c0131h17,S1e0306h14,S1f0407h07,S1f0407h16,S2aH6,S3aH5,S1aH2,S1b0130h07,S1d0217h08,S1f0407h12,S2aH3,S3aH6,S1aH6,S1b0130h17,S2h1006h09,S2i1007h12,S3j1224h09,S3j1224h11,S3j1224h16,S1b0130h09,S1c0131h12,S1d0217h10,S1d0217h15,S1d0217h16,S1e0306h08,S1e0306h09,S1e0306h18,S2h1006h16,S2h1006h17,S2i1007h11,S1c0131h09,S1e0306h13,S1f0407h15,S1g0504h07,S1g0504h08,S1g0504h12,S2h1006h11,S3j1224h17,S1aH5,S1b0130h15,S1e0306h07,S1e0306h10,S1f0407h18,S1g0504h16,S2aH4,S2aH5,S2i1007h14</v>
+        <v>S1c0131h09,S1e0306h13,S1f0407h15,S1g0504h07,S1g0504h08,S1g0504h12,S2h1006h11,S3j1224h17,S1aH6,S1b0130h17,S2h1006h09,S2i1007h12,S3j1224h09,S3j1224h11,S3j1224h16,S1aH4,S1c0131h10,S1d0217h07,S1e0306h16,S1f0407h14,S1g0504h14,S2aH2,S2i1007h09,S2i1007h18,S1aH5,S1b0130h15,S1e0306h07,S1e0306h10,S1f0407h18,S1g0504h16,S2aH4,S2aH5,S2i1007h14,S1b0130h12,S1b0130h13,S1c0131h11,S1f0407h09,S1g0504h11,S2h1006h08,S2h1006h18,S1b0130h08,S1c0131h15,S1d0217h11,S1d0217h12,S1d0217h18,S2h1006h15,S3aH2,S3j1224h08,S3j1224h10,S3j1224h13,S1aH3,S1d0217h09,S1d0217h14,S1e0306h11,S1g0504h10,S2h1006h10,S2i1007h10,S1c0131h16,S1e0306h15,S1e0306h17,S1f0407h08,S1g0504h18,S2i1007h16,S2i1007h17,S1c0131h18,S1f0407h10,S1f0407h13,S1g0504h09,S1g0504h15,S3j1224h07,S3j1224h18,S1b0130h18,S1c0131h13,S1f0407h17,S2h1006h12,S2i1007h08,S2i1007h13,S3j1224h12,S3j1224h15,S1aH2,S1b0130h07,S1d0217h08,S1f0407h12,S2aH3,S3aH6,S1b0130h09,S1c0131h12,S1d0217h10,S1d0217h15,S1d0217h16,S1e0306h08,S1e0306h09,S1e0306h18,S2h1006h16,S2h1006h17,S2i1007h11,S1b0130h10,S1c0131h14,S1c0131h17,S1e0306h14,S1f0407h07,S1f0407h16,S2aH6,S3aH5,S1b0130h14,S1b0130h16,S1c0131h08,S2h1006h14,S3aH3,S1c0131h07,S1d0217h13,S1e0306h12,S1f0407h11,S1g0504h13,S1g0504h17,S2i1007h07,S2i1007h15,S1b0130h11,S1d0217h17,S2h1006h07,S2h1006h13,S3aH4,S3j1224h14</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3099,7 +3096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF06F884-8B20-4DBB-9EEF-5C722D7848B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D95186-FFBA-4936-BF07-C7BA1000D79F}">
   <dimension ref="B2:F227"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4995,7 +4992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0DA8BA-9438-4946-B402-4D9372070CFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28017FCF-9E06-40D7-A071-FA92AE738AE3}">
   <dimension ref="A1:S250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5014,16 +5011,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
@@ -5076,13 +5073,13 @@
       <c r="O10" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="18" t="s">
         <v>569</v>
       </c>
     </row>
@@ -5114,8 +5111,8 @@
       <c r="L11" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="M11" s="17">
-        <v>910.4462186396936</v>
+      <c r="M11" s="14">
+        <v>0.18992949039006246</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>315</v>
@@ -5123,13 +5120,13 @@
       <c r="O11" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="Q11" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="R11" s="22">
-        <v>0.95029816876880036</v>
-      </c>
-      <c r="S11" s="21" t="s">
+      <c r="Q11" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="20">
+        <v>8.4099424771755776E-2</v>
+      </c>
+      <c r="S11" s="19" t="s">
         <v>570</v>
       </c>
     </row>
@@ -5161,8 +5158,8 @@
       <c r="L12" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="M12" s="18">
-        <v>124.94875165958091</v>
+      <c r="M12" s="16">
+        <v>2.5922488833022318E-2</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>315</v>
@@ -5170,13 +5167,13 @@
       <c r="O12" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="Q12" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="R12" s="24">
-        <v>0.16560240645944377</v>
-      </c>
-      <c r="S12" s="23" t="s">
+      <c r="Q12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="22">
+        <v>0.95029816876880058</v>
+      </c>
+      <c r="S12" s="21" t="s">
         <v>570</v>
       </c>
     </row>
@@ -5208,8 +5205,8 @@
       <c r="L13" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="M13" s="17">
-        <v>126.65263588224416</v>
+      <c r="M13" s="14">
+        <v>2.6293618971756659E-2</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>315</v>
@@ -5217,13 +5214,13 @@
       <c r="O13" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="Q13" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="R13" s="22">
-        <v>8.4099424771755762E-2</v>
-      </c>
-      <c r="S13" s="21" t="s">
+      <c r="Q13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="20">
+        <v>0.16560240645944377</v>
+      </c>
+      <c r="S13" s="19" t="s">
         <v>570</v>
       </c>
     </row>
@@ -5255,8 +5252,8 @@
       <c r="L14" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="M14" s="18">
-        <v>128.58591265749592</v>
+      <c r="M14" s="16">
+        <v>2.6729045404770214E-2</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>315</v>
@@ -5293,8 +5290,8 @@
       <c r="L15" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="M15" s="17">
-        <v>787.18617010921525</v>
+      <c r="M15" s="14">
+        <v>0.16373906189287368</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>315</v>
@@ -5331,8 +5328,8 @@
       <c r="L16" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="M16" s="18">
-        <v>272.53668307019967</v>
+      <c r="M16" s="16">
+        <v>5.6743614542044164E-2</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>315</v>
@@ -5369,8 +5366,8 @@
       <c r="L17" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="M17" s="17">
-        <v>135.64951673908271</v>
+      <c r="M17" s="14">
+        <v>2.823764383529128E-2</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>315</v>
@@ -5407,8 +5404,8 @@
       <c r="L18" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="M18" s="18">
-        <v>668.09555317438242</v>
+      <c r="M18" s="16">
+        <v>0.13924963603838303</v>
       </c>
       <c r="N18" s="15" t="s">
         <v>315</v>
@@ -5445,8 +5442,8 @@
       <c r="L19" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="M19" s="17">
-        <v>1</v>
+      <c r="M19" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>315</v>
@@ -5483,8 +5480,8 @@
       <c r="L20" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="M20" s="18">
-        <v>1</v>
+      <c r="M20" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>315</v>
@@ -5521,8 +5518,8 @@
       <c r="L21" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="M21" s="17">
-        <v>1</v>
+      <c r="M21" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N21" s="13" t="s">
         <v>315</v>
@@ -5559,8 +5556,8 @@
       <c r="L22" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="M22" s="18">
-        <v>1</v>
+      <c r="M22" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>315</v>
@@ -5597,8 +5594,8 @@
       <c r="L23" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="M23" s="17">
-        <v>1</v>
+      <c r="M23" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N23" s="13" t="s">
         <v>315</v>
@@ -5635,8 +5632,8 @@
       <c r="L24" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="M24" s="18">
-        <v>1</v>
+      <c r="M24" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>315</v>
@@ -5673,8 +5670,8 @@
       <c r="L25" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="M25" s="17">
-        <v>1</v>
+      <c r="M25" s="14">
+        <v>2.1997249932630001E-4</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>315</v>
@@ -5711,8 +5708,8 @@
       <c r="L26" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="M26" s="18">
-        <v>1</v>
+      <c r="M26" s="16">
+        <v>2.2048418371319999E-4</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>315</v>
@@ -5749,8 +5746,8 @@
       <c r="L27" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="M27" s="17">
-        <v>0.87705508160805623</v>
+      <c r="M27" s="14">
+        <v>1.737629315259E-4</v>
       </c>
       <c r="N27" s="13" t="s">
         <v>315</v>
@@ -5787,8 +5784,8 @@
       <c r="L28" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="M28" s="18">
-        <v>0.6027185163384855</v>
+      <c r="M28" s="16">
+        <v>1.1972120699450001E-4</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>315</v>
@@ -5825,8 +5822,8 @@
       <c r="L29" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="M29" s="17">
-        <v>0.90381849842049056</v>
+      <c r="M29" s="14">
+        <v>1.921535616116E-4</v>
       </c>
       <c r="N29" s="13" t="s">
         <v>315</v>
@@ -5863,8 +5860,8 @@
       <c r="L30" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="M30" s="18">
-        <v>1</v>
+      <c r="M30" s="16">
+        <v>2.2199566883339999E-4</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>315</v>
@@ -5901,8 +5898,8 @@
       <c r="L31" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="M31" s="17">
-        <v>1</v>
+      <c r="M31" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N31" s="13" t="s">
         <v>315</v>
@@ -5939,8 +5936,8 @@
       <c r="L32" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="M32" s="18">
-        <v>1</v>
+      <c r="M32" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N32" s="15" t="s">
         <v>315</v>
@@ -5977,8 +5974,8 @@
       <c r="L33" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="M33" s="17">
-        <v>1</v>
+      <c r="M33" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N33" s="13" t="s">
         <v>315</v>
@@ -6015,8 +6012,8 @@
       <c r="L34" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="M34" s="18">
-        <v>1</v>
+      <c r="M34" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N34" s="15" t="s">
         <v>315</v>
@@ -6053,8 +6050,8 @@
       <c r="L35" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="M35" s="17">
-        <v>1</v>
+      <c r="M35" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N35" s="13" t="s">
         <v>315</v>
@@ -6091,8 +6088,8 @@
       <c r="L36" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="M36" s="18">
-        <v>1</v>
+      <c r="M36" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N36" s="15" t="s">
         <v>315</v>
@@ -6129,8 +6126,8 @@
       <c r="L37" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="M37" s="17">
-        <v>1</v>
+      <c r="M37" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N37" s="13" t="s">
         <v>315</v>
@@ -6167,8 +6164,8 @@
       <c r="L38" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="M38" s="18">
-        <v>1</v>
+      <c r="M38" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>315</v>
@@ -6205,8 +6202,8 @@
       <c r="L39" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="M39" s="17">
-        <v>1</v>
+      <c r="M39" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N39" s="13" t="s">
         <v>315</v>
@@ -6243,8 +6240,8 @@
       <c r="L40" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="M40" s="18">
-        <v>1</v>
+      <c r="M40" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N40" s="15" t="s">
         <v>315</v>
@@ -6281,8 +6278,8 @@
       <c r="L41" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="M41" s="17">
-        <v>1</v>
+      <c r="M41" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N41" s="13" t="s">
         <v>315</v>
@@ -6319,8 +6316,8 @@
       <c r="L42" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="M42" s="18">
-        <v>0.86161720340781334</v>
+      <c r="M42" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N42" s="15" t="s">
         <v>315</v>
@@ -6357,8 +6354,8 @@
       <c r="L43" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="M43" s="17">
-        <v>0.40220779012646518</v>
+      <c r="M43" s="14">
+        <v>1.9124762777739999E-4</v>
       </c>
       <c r="N43" s="13" t="s">
         <v>315</v>
@@ -6395,8 +6392,8 @@
       <c r="L44" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="M44" s="18">
-        <v>2.17616795151395E-2</v>
+      <c r="M44" s="16">
+        <v>8.9143233160668748E-5</v>
       </c>
       <c r="N44" s="15" t="s">
         <v>315</v>
@@ -6433,8 +6430,8 @@
       <c r="L45" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="M45" s="17">
-        <v>2.17616795151395E-2</v>
+      <c r="M45" s="14">
+        <v>8.9143233160668748E-5</v>
       </c>
       <c r="N45" s="13" t="s">
         <v>315</v>
@@ -6471,8 +6468,8 @@
       <c r="L46" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="M46" s="18">
-        <v>2.17616795151395E-2</v>
+      <c r="M46" s="16">
+        <v>1.3779084353459999E-4</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>315</v>
@@ -6509,8 +6506,8 @@
       <c r="L47" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="M47" s="17">
-        <v>2.17616795151395E-2</v>
+      <c r="M47" s="14">
+        <v>1.3779084353459999E-4</v>
       </c>
       <c r="N47" s="13" t="s">
         <v>315</v>
@@ -6547,8 +6544,8 @@
       <c r="L48" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="M48" s="18">
-        <v>0.64273171641841242</v>
+      <c r="M48" s="16">
+        <v>1.9124762777739999E-4</v>
       </c>
       <c r="N48" s="15" t="s">
         <v>315</v>
@@ -6585,8 +6582,8 @@
       <c r="L49" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="M49" s="17">
-        <v>1</v>
+      <c r="M49" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N49" s="13" t="s">
         <v>315</v>
@@ -6623,8 +6620,8 @@
       <c r="L50" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="M50" s="18">
-        <v>1</v>
+      <c r="M50" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N50" s="15" t="s">
         <v>315</v>
@@ -6661,8 +6658,8 @@
       <c r="L51" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="M51" s="17">
-        <v>1</v>
+      <c r="M51" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N51" s="13" t="s">
         <v>315</v>
@@ -6699,8 +6696,8 @@
       <c r="L52" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="M52" s="18">
-        <v>1</v>
+      <c r="M52" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N52" s="15" t="s">
         <v>315</v>
@@ -6737,8 +6734,8 @@
       <c r="L53" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="M53" s="17">
-        <v>1</v>
+      <c r="M53" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N53" s="13" t="s">
         <v>315</v>
@@ -6775,8 +6772,8 @@
       <c r="L54" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="M54" s="18">
-        <v>1</v>
+      <c r="M54" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N54" s="15" t="s">
         <v>315</v>
@@ -6813,8 +6810,8 @@
       <c r="L55" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="M55" s="17">
-        <v>1</v>
+      <c r="M55" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N55" s="13" t="s">
         <v>315</v>
@@ -6851,8 +6848,8 @@
       <c r="L56" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="M56" s="18">
-        <v>1</v>
+      <c r="M56" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N56" s="15" t="s">
         <v>315</v>
@@ -6889,8 +6886,8 @@
       <c r="L57" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="M57" s="17">
-        <v>1</v>
+      <c r="M57" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N57" s="13" t="s">
         <v>315</v>
@@ -6927,8 +6924,8 @@
       <c r="L58" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="M58" s="18">
-        <v>1</v>
+      <c r="M58" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N58" s="15" t="s">
         <v>315</v>
@@ -6965,8 +6962,8 @@
       <c r="L59" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="M59" s="17">
-        <v>1</v>
+      <c r="M59" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N59" s="13" t="s">
         <v>315</v>
@@ -7003,8 +7000,8 @@
       <c r="L60" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="M60" s="18">
-        <v>1</v>
+      <c r="M60" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N60" s="15" t="s">
         <v>315</v>
@@ -7041,8 +7038,8 @@
       <c r="L61" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="M61" s="17">
-        <v>1</v>
+      <c r="M61" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N61" s="13" t="s">
         <v>315</v>
@@ -7079,8 +7076,8 @@
       <c r="L62" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="M62" s="18">
-        <v>1</v>
+      <c r="M62" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N62" s="15" t="s">
         <v>315</v>
@@ -7117,8 +7114,8 @@
       <c r="L63" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="M63" s="17">
-        <v>1</v>
+      <c r="M63" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N63" s="13" t="s">
         <v>315</v>
@@ -7155,8 +7152,8 @@
       <c r="L64" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="M64" s="18">
-        <v>1</v>
+      <c r="M64" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N64" s="15" t="s">
         <v>315</v>
@@ -7193,8 +7190,8 @@
       <c r="L65" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="M65" s="17">
-        <v>1</v>
+      <c r="M65" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N65" s="13" t="s">
         <v>315</v>
@@ -7231,8 +7228,8 @@
       <c r="L66" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M66" s="18">
-        <v>0.99492229852554559</v>
+      <c r="M66" s="16">
+        <v>2.181269939123E-4</v>
       </c>
       <c r="N66" s="15" t="s">
         <v>315</v>
@@ -7269,8 +7266,8 @@
       <c r="L67" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="M67" s="17">
-        <v>4.0997137740250801E-2</v>
+      <c r="M67" s="14">
+        <v>7.6854436248071047E-6</v>
       </c>
       <c r="N67" s="13" t="s">
         <v>315</v>
@@ -7307,8 +7304,8 @@
       <c r="L68" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="M68" s="18">
-        <v>2.9768579070969799E-2</v>
+      <c r="M68" s="16">
+        <v>5.6402304461845349E-6</v>
       </c>
       <c r="N68" s="15" t="s">
         <v>315</v>
@@ -7345,8 +7342,8 @@
       <c r="L69" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="M69" s="17">
-        <v>3.4051859854321999E-2</v>
+      <c r="M69" s="14">
+        <v>6.4668772901883491E-6</v>
       </c>
       <c r="N69" s="13" t="s">
         <v>315</v>
@@ -7383,8 +7380,8 @@
       <c r="L70" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="M70" s="18">
-        <v>3.1969723184207502E-2</v>
+      <c r="M70" s="16">
+        <v>6.0011018111364586E-6</v>
       </c>
       <c r="N70" s="15" t="s">
         <v>315</v>
@@ -7421,8 +7418,8 @@
       <c r="L71" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="M71" s="17">
-        <v>1.91161903773245E-2</v>
+      <c r="M71" s="14">
+        <v>3.1718993412286982E-6</v>
       </c>
       <c r="N71" s="13" t="s">
         <v>315</v>
@@ -7459,8 +7456,8 @@
       <c r="L72" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="M72" s="18">
-        <v>3.7911389543551E-3</v>
+      <c r="M72" s="16">
+        <v>0</v>
       </c>
       <c r="N72" s="15" t="s">
         <v>315</v>
@@ -7497,7 +7494,7 @@
       <c r="L73" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="M73" s="17">
+      <c r="M73" s="14">
         <v>0</v>
       </c>
       <c r="N73" s="13" t="s">
@@ -7535,7 +7532,7 @@
       <c r="L74" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="M74" s="18">
+      <c r="M74" s="16">
         <v>0</v>
       </c>
       <c r="N74" s="15" t="s">
@@ -7573,7 +7570,7 @@
       <c r="L75" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="M75" s="17">
+      <c r="M75" s="14">
         <v>0</v>
       </c>
       <c r="N75" s="13" t="s">
@@ -7611,7 +7608,7 @@
       <c r="L76" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="M76" s="18">
+      <c r="M76" s="16">
         <v>0</v>
       </c>
       <c r="N76" s="15" t="s">
@@ -7649,7 +7646,7 @@
       <c r="L77" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="M77" s="17">
+      <c r="M77" s="14">
         <v>0</v>
       </c>
       <c r="N77" s="13" t="s">
@@ -7687,7 +7684,7 @@
       <c r="L78" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="M78" s="18">
+      <c r="M78" s="16">
         <v>0</v>
       </c>
       <c r="N78" s="15" t="s">
@@ -7725,7 +7722,7 @@
       <c r="L79" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="M79" s="17">
+      <c r="M79" s="14">
         <v>0</v>
       </c>
       <c r="N79" s="13" t="s">
@@ -7763,7 +7760,7 @@
       <c r="L80" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="M80" s="18">
+      <c r="M80" s="16">
         <v>0</v>
       </c>
       <c r="N80" s="15" t="s">
@@ -7801,7 +7798,7 @@
       <c r="L81" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="M81" s="17">
+      <c r="M81" s="14">
         <v>0</v>
       </c>
       <c r="N81" s="13" t="s">
@@ -7839,7 +7836,7 @@
       <c r="L82" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="M82" s="18">
+      <c r="M82" s="16">
         <v>0</v>
       </c>
       <c r="N82" s="15" t="s">
@@ -7877,7 +7874,7 @@
       <c r="L83" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="M83" s="17">
+      <c r="M83" s="14">
         <v>0</v>
       </c>
       <c r="N83" s="13" t="s">
@@ -7915,7 +7912,7 @@
       <c r="L84" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="M84" s="18">
+      <c r="M84" s="16">
         <v>0</v>
       </c>
       <c r="N84" s="15" t="s">
@@ -7953,7 +7950,7 @@
       <c r="L85" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="M85" s="17">
+      <c r="M85" s="14">
         <v>0</v>
       </c>
       <c r="N85" s="13" t="s">
@@ -7991,8 +7988,8 @@
       <c r="L86" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="M86" s="18">
-        <v>4.0488611228830153E-5</v>
+      <c r="M86" s="16">
+        <v>5.9830704470064803E-9</v>
       </c>
       <c r="N86" s="15" t="s">
         <v>315</v>
@@ -8029,8 +8026,8 @@
       <c r="L87" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="M87" s="17">
-        <v>5.197297344862057E-5</v>
+      <c r="M87" s="14">
+        <v>8.2842672094377163E-9</v>
       </c>
       <c r="N87" s="13" t="s">
         <v>315</v>
@@ -8067,8 +8064,8 @@
       <c r="L88" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="M88" s="18">
-        <v>3.2165149926521686E-5</v>
+      <c r="M88" s="16">
+        <v>0</v>
       </c>
       <c r="N88" s="15" t="s">
         <v>315</v>
@@ -8105,8 +8102,8 @@
       <c r="L89" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="M89" s="17">
-        <v>5.6449096596689023E-5</v>
+      <c r="M89" s="14">
+        <v>9.180972147371511E-9</v>
       </c>
       <c r="N89" s="13" t="s">
         <v>315</v>
@@ -8143,7 +8140,7 @@
       <c r="L90" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="M90" s="18">
+      <c r="M90" s="16">
         <v>0</v>
       </c>
       <c r="N90" s="15" t="s">
@@ -8181,8 +8178,8 @@
       <c r="L91" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="M91" s="17">
-        <v>0.17486534147526861</v>
+      <c r="M91" s="14">
+        <v>3.4257146967205984E-5</v>
       </c>
       <c r="N91" s="13" t="s">
         <v>315</v>
@@ -8219,8 +8216,8 @@
       <c r="L92" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="M92" s="18">
-        <v>9.7696787503192203E-2</v>
+      <c r="M92" s="16">
+        <v>1.8946301655311889E-5</v>
       </c>
       <c r="N92" s="15" t="s">
         <v>315</v>
@@ -8257,8 +8254,8 @@
       <c r="L93" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="M93" s="17">
-        <v>3.4337748743991203E-2</v>
+      <c r="M93" s="14">
+        <v>6.517120181777578E-6</v>
       </c>
       <c r="N93" s="13" t="s">
         <v>315</v>
@@ -8295,8 +8292,8 @@
       <c r="L94" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="M94" s="18">
-        <v>1.1808228693702899E-2</v>
+      <c r="M94" s="16">
+        <v>2.2734668397922028E-6</v>
       </c>
       <c r="N94" s="15" t="s">
         <v>315</v>
@@ -8333,8 +8330,8 @@
       <c r="L95" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="M95" s="17">
-        <v>2.8280208695302601E-2</v>
+      <c r="M95" s="14">
+        <v>5.398674215690003E-6</v>
       </c>
       <c r="N95" s="13" t="s">
         <v>315</v>
@@ -8371,8 +8368,8 @@
       <c r="L96" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="M96" s="18">
-        <v>7.1297562902782996E-2</v>
+      <c r="M96" s="16">
+        <v>1.3899093137292051E-5</v>
       </c>
       <c r="N96" s="15" t="s">
         <v>315</v>
@@ -8409,8 +8406,8 @@
       <c r="L97" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="M97" s="17">
-        <v>0.1166970601964188</v>
+      <c r="M97" s="14">
+        <v>2.2796004354123626E-5</v>
       </c>
       <c r="N97" s="13" t="s">
         <v>315</v>
@@ -8447,8 +8444,8 @@
       <c r="L98" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="M98" s="18">
-        <v>0.17193461858431069</v>
+      <c r="M98" s="16">
+        <v>3.3634857850774313E-5</v>
       </c>
       <c r="N98" s="15" t="s">
         <v>315</v>
@@ -8485,8 +8482,8 @@
       <c r="L99" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="M99" s="17">
-        <v>0.20550600352084339</v>
+      <c r="M99" s="14">
+        <v>4.0176667492070361E-5</v>
       </c>
       <c r="N99" s="13" t="s">
         <v>315</v>
@@ -8523,8 +8520,8 @@
       <c r="L100" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="M100" s="18">
-        <v>0.18057928477704219</v>
+      <c r="M100" s="16">
+        <v>3.5630584473136843E-5</v>
       </c>
       <c r="N100" s="15" t="s">
         <v>315</v>
@@ -8561,8 +8558,8 @@
       <c r="L101" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="M101" s="17">
-        <v>0.14707800232829679</v>
+      <c r="M101" s="14">
+        <v>2.8843950307865177E-5</v>
       </c>
       <c r="N101" s="13" t="s">
         <v>315</v>
@@ -8599,8 +8596,8 @@
       <c r="L102" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="M102" s="18">
-        <v>0.1281829585859722</v>
+      <c r="M102" s="16">
+        <v>2.5227417601081218E-5</v>
       </c>
       <c r="N102" s="15" t="s">
         <v>315</v>
@@ -8637,8 +8634,8 @@
       <c r="L103" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="M103" s="17">
-        <v>0.11743993012744169</v>
+      <c r="M103" s="14">
+        <v>2.325844102707556E-5</v>
       </c>
       <c r="N103" s="13" t="s">
         <v>315</v>
@@ -8675,8 +8672,8 @@
       <c r="L104" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="M104" s="18">
-        <v>0.116234903787931</v>
+      <c r="M104" s="16">
+        <v>2.2900022770765075E-5</v>
       </c>
       <c r="N104" s="15" t="s">
         <v>315</v>
@@ -8713,8 +8710,8 @@
       <c r="L105" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="M105" s="17">
-        <v>0.12448260762969481</v>
+      <c r="M105" s="14">
+        <v>2.4173862030389125E-5</v>
       </c>
       <c r="N105" s="13" t="s">
         <v>315</v>
@@ -8751,8 +8748,8 @@
       <c r="L106" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="M106" s="18">
-        <v>0.1834285352427692</v>
+      <c r="M106" s="16">
+        <v>3.6039094667303122E-5</v>
       </c>
       <c r="N106" s="15" t="s">
         <v>315</v>
@@ -8789,8 +8786,8 @@
       <c r="L107" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="M107" s="17">
-        <v>0.33396358600513337</v>
+      <c r="M107" s="14">
+        <v>6.5682162437510097E-5</v>
       </c>
       <c r="N107" s="13" t="s">
         <v>315</v>
@@ -8827,8 +8824,8 @@
       <c r="L108" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="M108" s="18">
-        <v>0.56404826102603567</v>
+      <c r="M108" s="16">
+        <v>1.10318786576E-4</v>
       </c>
       <c r="N108" s="15" t="s">
         <v>315</v>
@@ -8865,8 +8862,8 @@
       <c r="L109" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="M109" s="17">
-        <v>0.86107080708801809</v>
+      <c r="M109" s="14">
+        <v>1.701591532397E-4</v>
       </c>
       <c r="N109" s="13" t="s">
         <v>315</v>
@@ -8903,8 +8900,8 @@
       <c r="L110" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="M110" s="18">
-        <v>0.96324877079299343</v>
+      <c r="M110" s="16">
+        <v>2.0423243838599999E-4</v>
       </c>
       <c r="N110" s="15" t="s">
         <v>315</v>
@@ -8941,8 +8938,8 @@
       <c r="L111" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="M111" s="17">
-        <v>0.97731535886249621</v>
+      <c r="M111" s="14">
+        <v>2.0940519779990001E-4</v>
       </c>
       <c r="N111" s="13" t="s">
         <v>315</v>
@@ -8979,8 +8976,8 @@
       <c r="L112" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="M112" s="18">
-        <v>0.96921013338082596</v>
+      <c r="M112" s="16">
+        <v>2.0687847591679999E-4</v>
       </c>
       <c r="N112" s="15" t="s">
         <v>315</v>
@@ -9017,8 +9014,8 @@
       <c r="L113" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="M113" s="17">
-        <v>0.98647649455786079</v>
+      <c r="M113" s="14">
+        <v>2.1155637626579999E-4</v>
       </c>
       <c r="N113" s="13" t="s">
         <v>315</v>
@@ -9055,8 +9052,8 @@
       <c r="L114" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="M114" s="18">
-        <v>0.96541079851119216</v>
+      <c r="M114" s="16">
+        <v>2.029009652356E-4</v>
       </c>
       <c r="N114" s="15" t="s">
         <v>315</v>
@@ -9093,8 +9090,8 @@
       <c r="L115" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="M115" s="17">
-        <v>0.45110835286350798</v>
+      <c r="M115" s="14">
+        <v>8.8371953029196262E-5</v>
       </c>
       <c r="N115" s="13" t="s">
         <v>315</v>
@@ -9131,8 +9128,8 @@
       <c r="L116" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="M116" s="18">
-        <v>0.38856779416054338</v>
+      <c r="M116" s="16">
+        <v>7.624696241223045E-5</v>
       </c>
       <c r="N116" s="15" t="s">
         <v>315</v>
@@ -9169,8 +9166,8 @@
       <c r="L117" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="M117" s="17">
-        <v>0.45002327271606729</v>
+      <c r="M117" s="14">
+        <v>8.8634855456720278E-5</v>
       </c>
       <c r="N117" s="13" t="s">
         <v>315</v>
@@ -9207,8 +9204,8 @@
       <c r="L118" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="M118" s="18">
-        <v>0.59679336712486308</v>
+      <c r="M118" s="16">
+        <v>1.172361388816E-4</v>
       </c>
       <c r="N118" s="15" t="s">
         <v>315</v>
@@ -9245,8 +9242,8 @@
       <c r="L119" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="M119" s="17">
-        <v>0.7214705845035031</v>
+      <c r="M119" s="14">
+        <v>1.429157751278E-4</v>
       </c>
       <c r="N119" s="13" t="s">
         <v>315</v>
@@ -9283,8 +9280,8 @@
       <c r="L120" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="M120" s="18">
-        <v>0.80134483059027595</v>
+      <c r="M120" s="16">
+        <v>1.6020733607880001E-4</v>
       </c>
       <c r="N120" s="15" t="s">
         <v>315</v>
@@ -9321,8 +9318,8 @@
       <c r="L121" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="M121" s="17">
-        <v>0.78918709755772876</v>
+      <c r="M121" s="14">
+        <v>1.5654737073130001E-4</v>
       </c>
       <c r="N121" s="13" t="s">
         <v>315</v>
@@ -9359,8 +9356,8 @@
       <c r="L122" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="M122" s="18">
-        <v>0.72320944088022177</v>
+      <c r="M122" s="16">
+        <v>1.4195009272400001E-4</v>
       </c>
       <c r="N122" s="15" t="s">
         <v>315</v>
@@ -9397,8 +9394,8 @@
       <c r="L123" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="M123" s="17">
-        <v>0.6278237624422458</v>
+      <c r="M123" s="14">
+        <v>1.22616034201E-4</v>
       </c>
       <c r="N123" s="13" t="s">
         <v>315</v>
@@ -9435,8 +9432,8 @@
       <c r="L124" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="M124" s="18">
-        <v>0.56281937518214786</v>
+      <c r="M124" s="16">
+        <v>1.1081948364759999E-4</v>
       </c>
       <c r="N124" s="15" t="s">
         <v>315</v>
@@ -9473,8 +9470,8 @@
       <c r="L125" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="M125" s="17">
-        <v>0.39178892037745938</v>
+      <c r="M125" s="14">
+        <v>7.6325113729345371E-5</v>
       </c>
       <c r="N125" s="13" t="s">
         <v>315</v>
@@ -9511,8 +9508,8 @@
       <c r="L126" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="M126" s="18">
-        <v>0.46355795126861887</v>
+      <c r="M126" s="16">
+        <v>9.1118352564251235E-5</v>
       </c>
       <c r="N126" s="15" t="s">
         <v>315</v>
@@ -9549,8 +9546,8 @@
       <c r="L127" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="M127" s="17">
-        <v>0.59461087678074409</v>
+      <c r="M127" s="14">
+        <v>1.16001476522E-4</v>
       </c>
       <c r="N127" s="13" t="s">
         <v>315</v>
@@ -9587,8 +9584,8 @@
       <c r="L128" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="M128" s="18">
-        <v>0.70925296118363257</v>
+      <c r="M128" s="16">
+        <v>1.389677650039E-4</v>
       </c>
       <c r="N128" s="15" t="s">
         <v>315</v>
@@ -9625,8 +9622,8 @@
       <c r="L129" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="M129" s="17">
-        <v>0.75551456455678123</v>
+      <c r="M129" s="14">
+        <v>1.4760809998149999E-4</v>
       </c>
       <c r="N129" s="13" t="s">
         <v>315</v>
@@ -9663,8 +9660,8 @@
       <c r="L130" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="M130" s="18">
-        <v>0.68772072984050692</v>
+      <c r="M130" s="16">
+        <v>1.3522427803429999E-4</v>
       </c>
       <c r="N130" s="15" t="s">
         <v>315</v>
@@ -9701,8 +9698,8 @@
       <c r="L131" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="M131" s="17">
-        <v>0.64198316673694111</v>
+      <c r="M131" s="14">
+        <v>1.2609690087939999E-4</v>
       </c>
       <c r="N131" s="13" t="s">
         <v>315</v>
@@ -9739,8 +9736,8 @@
       <c r="L132" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="M132" s="18">
-        <v>0.55338378111786823</v>
+      <c r="M132" s="16">
+        <v>1.0859684552569999E-4</v>
       </c>
       <c r="N132" s="15" t="s">
         <v>315</v>
@@ -9777,8 +9774,8 @@
       <c r="L133" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="M133" s="17">
-        <v>0.38689614265654221</v>
+      <c r="M133" s="14">
+        <v>7.5995380658405262E-5</v>
       </c>
       <c r="N133" s="13" t="s">
         <v>315</v>
@@ -9815,8 +9812,8 @@
       <c r="L134" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="M134" s="18">
-        <v>0.23184842979270601</v>
+      <c r="M134" s="16">
+        <v>4.5189715237554239E-5</v>
       </c>
       <c r="N134" s="15" t="s">
         <v>315</v>
@@ -9853,8 +9850,8 @@
       <c r="L135" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="M135" s="17">
-        <v>0.14305773428253499</v>
+      <c r="M135" s="14">
+        <v>2.77739989509264E-5</v>
       </c>
       <c r="N135" s="13" t="s">
         <v>315</v>
@@ -9891,8 +9888,8 @@
       <c r="L136" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="M136" s="18">
-        <v>0.104657185767148</v>
+      <c r="M136" s="16">
+        <v>2.0183152423913765E-5</v>
       </c>
       <c r="N136" s="15" t="s">
         <v>315</v>
@@ -9929,8 +9926,8 @@
       <c r="L137" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="M137" s="17">
-        <v>5.8955177205326302E-2</v>
+      <c r="M137" s="14">
+        <v>1.1276769056504762E-5</v>
       </c>
       <c r="N137" s="13" t="s">
         <v>315</v>
@@ -9967,8 +9964,8 @@
       <c r="L138" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="M138" s="18">
-        <v>4.4290357053023997E-2</v>
+      <c r="M138" s="16">
+        <v>8.5002299302634038E-6</v>
       </c>
       <c r="N138" s="15" t="s">
         <v>315</v>
@@ -10005,8 +10002,8 @@
       <c r="L139" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="M139" s="17">
-        <v>9.2353791786366296E-2</v>
+      <c r="M139" s="14">
+        <v>1.8105976598290176E-5</v>
       </c>
       <c r="N139" s="13" t="s">
         <v>315</v>
@@ -10043,8 +10040,8 @@
       <c r="L140" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="M140" s="18">
-        <v>0.1189490671049088</v>
+      <c r="M140" s="16">
+        <v>2.321183234545648E-5</v>
       </c>
       <c r="N140" s="15" t="s">
         <v>315</v>
@@ -10081,8 +10078,8 @@
       <c r="L141" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="M141" s="17">
-        <v>0.1563122342939334</v>
+      <c r="M141" s="14">
+        <v>3.0667901990052686E-5</v>
       </c>
       <c r="N141" s="13" t="s">
         <v>315</v>
@@ -10119,8 +10116,8 @@
       <c r="L142" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="M142" s="18">
-        <v>0.21259942476916549</v>
+      <c r="M142" s="16">
+        <v>4.1707024222746292E-5</v>
       </c>
       <c r="N142" s="15" t="s">
         <v>315</v>
@@ -10157,8 +10154,8 @@
       <c r="L143" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="M143" s="17">
-        <v>0.27949837986343051</v>
+      <c r="M143" s="14">
+        <v>5.4649269648687871E-5</v>
       </c>
       <c r="N143" s="13" t="s">
         <v>315</v>
@@ -10195,8 +10192,8 @@
       <c r="L144" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="M144" s="18">
-        <v>0.36300779646062947</v>
+      <c r="M144" s="16">
+        <v>7.1831213358876435E-5</v>
       </c>
       <c r="N144" s="15" t="s">
         <v>315</v>
@@ -10233,8 +10230,8 @@
       <c r="L145" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="M145" s="17">
-        <v>0.50414269968285841</v>
+      <c r="M145" s="14">
+        <v>9.9797204115294199E-5</v>
       </c>
       <c r="N145" s="13" t="s">
         <v>315</v>
@@ -10271,8 +10268,8 @@
       <c r="L146" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="M146" s="18">
-        <v>0.63941095807005532</v>
+      <c r="M146" s="16">
+        <v>1.275103099047E-4</v>
       </c>
       <c r="N146" s="15" t="s">
         <v>315</v>
@@ -10309,8 +10306,8 @@
       <c r="L147" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="M147" s="17">
-        <v>0.76572296340862034</v>
+      <c r="M147" s="14">
+        <v>1.529529874804E-4</v>
       </c>
       <c r="N147" s="13" t="s">
         <v>315</v>
@@ -10347,8 +10344,8 @@
       <c r="L148" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="M148" s="18">
-        <v>0.8310350600666897</v>
+      <c r="M148" s="16">
+        <v>1.6627260693199999E-4</v>
       </c>
       <c r="N148" s="15" t="s">
         <v>315</v>
@@ -10385,8 +10382,8 @@
       <c r="L149" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="M149" s="17">
-        <v>0.69860027488763221</v>
+      <c r="M149" s="14">
+        <v>1.3726001160479999E-4</v>
       </c>
       <c r="N149" s="13" t="s">
         <v>315</v>
@@ -10423,8 +10420,8 @@
       <c r="L150" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="M150" s="18">
-        <v>0.69342845854651758</v>
+      <c r="M150" s="16">
+        <v>1.3612021504219999E-4</v>
       </c>
       <c r="N150" s="15" t="s">
         <v>315</v>
@@ -10461,8 +10458,8 @@
       <c r="L151" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="M151" s="17">
-        <v>0.77780568789649307</v>
+      <c r="M151" s="14">
+        <v>1.5379490037800001E-4</v>
       </c>
       <c r="N151" s="13" t="s">
         <v>315</v>
@@ -10499,8 +10496,8 @@
       <c r="L152" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="M152" s="18">
-        <v>0.84774531081839244</v>
+      <c r="M152" s="16">
+        <v>1.6748164835549999E-4</v>
       </c>
       <c r="N152" s="15" t="s">
         <v>315</v>
@@ -10537,8 +10534,8 @@
       <c r="L153" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="M153" s="17">
-        <v>0.74660026402274215</v>
+      <c r="M153" s="14">
+        <v>1.4722140084269999E-4</v>
       </c>
       <c r="N153" s="13" t="s">
         <v>315</v>
@@ -10575,8 +10572,8 @@
       <c r="L154" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="M154" s="18">
-        <v>0.72554022770814308</v>
+      <c r="M154" s="16">
+        <v>1.428187737593E-4</v>
       </c>
       <c r="N154" s="15" t="s">
         <v>315</v>
@@ -10613,8 +10610,8 @@
       <c r="L155" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="M155" s="17">
-        <v>0.74328557035686826</v>
+      <c r="M155" s="14">
+        <v>1.472423288191E-4</v>
       </c>
       <c r="N155" s="13" t="s">
         <v>315</v>
@@ -10651,8 +10648,8 @@
       <c r="L156" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="M156" s="18">
-        <v>0.80404299023961767</v>
+      <c r="M156" s="16">
+        <v>1.620941994024E-4</v>
       </c>
       <c r="N156" s="15" t="s">
         <v>315</v>
@@ -10689,8 +10686,8 @@
       <c r="L157" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="M157" s="17">
-        <v>0.84413794255249086</v>
+      <c r="M157" s="14">
+        <v>1.6970796315E-4</v>
       </c>
       <c r="N157" s="13" t="s">
         <v>315</v>
@@ -10727,8 +10724,8 @@
       <c r="L158" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="M158" s="18">
-        <v>0.87337384869410661</v>
+      <c r="M158" s="16">
+        <v>1.7549749742570001E-4</v>
       </c>
       <c r="N158" s="15" t="s">
         <v>315</v>
@@ -10765,8 +10762,8 @@
       <c r="L159" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="M159" s="17">
-        <v>0.86628508099944124</v>
+      <c r="M159" s="14">
+        <v>1.7328775595059999E-4</v>
       </c>
       <c r="N159" s="13" t="s">
         <v>315</v>
@@ -10803,8 +10800,8 @@
       <c r="L160" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="M160" s="18">
-        <v>0.81017306446088599</v>
+      <c r="M160" s="16">
+        <v>1.5977551651199999E-4</v>
       </c>
       <c r="N160" s="15" t="s">
         <v>315</v>
@@ -10841,8 +10838,8 @@
       <c r="L161" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="M161" s="17">
-        <v>0.80347813638930321</v>
+      <c r="M161" s="14">
+        <v>1.5744613852500001E-4</v>
       </c>
       <c r="N161" s="13" t="s">
         <v>315</v>
@@ -10879,8 +10876,8 @@
       <c r="L162" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="M162" s="18">
-        <v>0.66318384699010735</v>
+      <c r="M162" s="16">
+        <v>1.302919801652E-4</v>
       </c>
       <c r="N162" s="15" t="s">
         <v>315</v>
@@ -10917,8 +10914,8 @@
       <c r="L163" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="M163" s="17">
-        <v>283.30418226982357</v>
+      <c r="M163" s="14">
+        <v>6.0182089077022598E-2</v>
       </c>
       <c r="N163" s="13" t="s">
         <v>315</v>
@@ -10955,8 +10952,8 @@
       <c r="L164" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="M164" s="18">
-        <v>39.016492065929597</v>
+      <c r="M164" s="16">
+        <v>8.2922760122733988E-3</v>
       </c>
       <c r="N164" s="15" t="s">
         <v>315</v>
@@ -10993,8 +10990,8 @@
       <c r="L165" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="M165" s="17">
-        <v>39.296394359289621</v>
+      <c r="M165" s="14">
+        <v>8.3526627181755436E-3</v>
       </c>
       <c r="N165" s="13" t="s">
         <v>315</v>
@@ -11031,8 +11028,8 @@
       <c r="L166" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="M166" s="18">
-        <v>39.163636629880145</v>
+      <c r="M166" s="16">
+        <v>8.3380663402495437E-3</v>
       </c>
       <c r="N166" s="15" t="s">
         <v>315</v>
@@ -11069,8 +11066,8 @@
       <c r="L167" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="M167" s="17">
-        <v>220.25824307177382</v>
+      <c r="M167" s="14">
+        <v>4.6845433081115967E-2</v>
       </c>
       <c r="N167" s="13" t="s">
         <v>315</v>
@@ -11107,8 +11104,8 @@
       <c r="L168" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="M168" s="18">
-        <v>76.457781944023736</v>
+      <c r="M168" s="16">
+        <v>1.619565745563202E-2</v>
       </c>
       <c r="N168" s="15" t="s">
         <v>315</v>
@@ -11145,8 +11142,8 @@
       <c r="L169" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="M169" s="17">
-        <v>38.517534904695331</v>
+      <c r="M169" s="14">
+        <v>8.1170612545774044E-3</v>
       </c>
       <c r="N169" s="13" t="s">
         <v>315</v>
@@ -11183,8 +11180,8 @@
       <c r="L170" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="M170" s="18">
-        <v>197.0188931744006</v>
+      <c r="M170" s="16">
+        <v>4.1573705435763483E-2</v>
       </c>
       <c r="N170" s="15" t="s">
         <v>315</v>
@@ -11221,8 +11218,8 @@
       <c r="L171" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="M171" s="17">
-        <v>1.25431920229359E-2</v>
+      <c r="M171" s="14">
+        <v>1.44988213896218E-6</v>
       </c>
       <c r="N171" s="13" t="s">
         <v>315</v>
@@ -11259,8 +11256,8 @@
       <c r="L172" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="M172" s="18">
-        <v>8.7183747853399E-3</v>
+      <c r="M172" s="16">
+        <v>1.523613733566155E-6</v>
       </c>
       <c r="N172" s="15" t="s">
         <v>315</v>
@@ -11297,8 +11294,8 @@
       <c r="L173" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="M173" s="17">
-        <v>7.0492420276354996E-3</v>
+      <c r="M173" s="14">
+        <v>1.1731830480348306E-6</v>
       </c>
       <c r="N173" s="13" t="s">
         <v>315</v>
@@ -11335,8 +11332,8 @@
       <c r="L174" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="M174" s="18">
-        <v>1.8532355328176001E-3</v>
+      <c r="M174" s="16">
+        <v>3.191766207304846E-7</v>
       </c>
       <c r="N174" s="15" t="s">
         <v>315</v>
@@ -11373,8 +11370,8 @@
       <c r="L175" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="M175" s="17">
-        <v>2.3363524325700001E-3</v>
+      <c r="M175" s="14">
+        <v>3.989029107875207E-7</v>
       </c>
       <c r="N175" s="13" t="s">
         <v>315</v>
@@ -11411,8 +11408,8 @@
       <c r="L176" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="M176" s="18">
-        <v>2.0953079977972999E-3</v>
+      <c r="M176" s="16">
+        <v>3.5302667712830082E-7</v>
       </c>
       <c r="N176" s="15" t="s">
         <v>315</v>
@@ -11449,8 +11446,8 @@
       <c r="L177" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="M177" s="17">
-        <v>3.6747244262994002E-3</v>
+      <c r="M177" s="14">
+        <v>6.3462369114051736E-7</v>
       </c>
       <c r="N177" s="13" t="s">
         <v>315</v>
@@ -11487,8 +11484,8 @@
       <c r="L178" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="M178" s="18">
-        <v>1.5777707703478899E-2</v>
+      <c r="M178" s="16">
+        <v>2.3033186134865828E-6</v>
       </c>
       <c r="N178" s="15" t="s">
         <v>315</v>
@@ -11525,8 +11522,8 @@
       <c r="L179" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="M179" s="17">
-        <v>3.9917886797465003E-2</v>
+      <c r="M179" s="14">
+        <v>7.530230801523832E-6</v>
       </c>
       <c r="N179" s="13" t="s">
         <v>315</v>
@@ -11563,8 +11560,8 @@
       <c r="L180" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="M180" s="18">
-        <v>6.4939079244764303E-2</v>
+      <c r="M180" s="16">
+        <v>1.2131927642560168E-5</v>
       </c>
       <c r="N180" s="15" t="s">
         <v>315</v>
@@ -11601,8 +11598,8 @@
       <c r="L181" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="M181" s="17">
-        <v>9.2737565534838501E-2</v>
+      <c r="M181" s="14">
+        <v>1.8060911062267329E-5</v>
       </c>
       <c r="N181" s="13" t="s">
         <v>315</v>
@@ -11639,8 +11636,8 @@
       <c r="L182" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="M182" s="18">
-        <v>0.13588162343746929</v>
+      <c r="M182" s="16">
+        <v>2.6212494399421199E-5</v>
       </c>
       <c r="N182" s="15" t="s">
         <v>315</v>
@@ -11677,8 +11674,8 @@
       <c r="L183" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="M183" s="17">
-        <v>0.14306137192418081</v>
+      <c r="M183" s="14">
+        <v>2.7641768200064929E-5</v>
       </c>
       <c r="N183" s="13" t="s">
         <v>315</v>
@@ -11715,8 +11712,8 @@
       <c r="L184" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="M184" s="18">
-        <v>0.1206271759458008</v>
+      <c r="M184" s="16">
+        <v>2.3531260917765037E-5</v>
       </c>
       <c r="N184" s="15" t="s">
         <v>315</v>
@@ -11753,8 +11750,8 @@
       <c r="L185" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="M185" s="17">
-        <v>0.11865671140744689</v>
+      <c r="M185" s="14">
+        <v>2.2994519242244803E-5</v>
       </c>
       <c r="N185" s="13" t="s">
         <v>315</v>
@@ -11791,8 +11788,8 @@
       <c r="L186" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="M186" s="18">
-        <v>0.1285749531592445</v>
+      <c r="M186" s="16">
+        <v>2.5073197583359571E-5</v>
       </c>
       <c r="N186" s="15" t="s">
         <v>315</v>
@@ -11829,8 +11826,8 @@
       <c r="L187" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="M187" s="17">
-        <v>0.14510719244728679</v>
+      <c r="M187" s="14">
+        <v>2.8524161201808805E-5</v>
       </c>
       <c r="N187" s="13" t="s">
         <v>315</v>
@@ -11867,8 +11864,8 @@
       <c r="L188" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="M188" s="18">
-        <v>0.1724287775530608</v>
+      <c r="M188" s="16">
+        <v>3.3799749919429065E-5</v>
       </c>
       <c r="N188" s="15" t="s">
         <v>315</v>
@@ -11905,8 +11902,8 @@
       <c r="L189" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="M189" s="17">
-        <v>0.21888254829158049</v>
+      <c r="M189" s="14">
+        <v>4.2803732493409308E-5</v>
       </c>
       <c r="N189" s="13" t="s">
         <v>315</v>
@@ -11943,8 +11940,8 @@
       <c r="L190" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="M190" s="18">
-        <v>0.26248604442958839</v>
+      <c r="M190" s="16">
+        <v>5.156007175174158E-5</v>
       </c>
       <c r="N190" s="15" t="s">
         <v>315</v>
@@ -11981,8 +11978,8 @@
       <c r="L191" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="M191" s="17">
-        <v>0.2905811338148932</v>
+      <c r="M191" s="14">
+        <v>5.686712170057242E-5</v>
       </c>
       <c r="N191" s="13" t="s">
         <v>315</v>
@@ -12019,8 +12016,8 @@
       <c r="L192" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="M192" s="18">
-        <v>0.3350898562639969</v>
+      <c r="M192" s="16">
+        <v>6.557836810859981E-5</v>
       </c>
       <c r="N192" s="15" t="s">
         <v>315</v>
@@ -12057,8 +12054,8 @@
       <c r="L193" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="M193" s="17">
-        <v>0.43821718529060438</v>
+      <c r="M193" s="14">
+        <v>8.6091697568738015E-5</v>
       </c>
       <c r="N193" s="13" t="s">
         <v>315</v>
@@ -12095,8 +12092,8 @@
       <c r="L194" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="M194" s="18">
-        <v>0.4179459849254244</v>
+      <c r="M194" s="16">
+        <v>8.204607632899634E-5</v>
       </c>
       <c r="N194" s="15" t="s">
         <v>315</v>
@@ -12133,8 +12130,8 @@
       <c r="L195" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="M195" s="17">
-        <v>0.36443715686404299</v>
+      <c r="M195" s="14">
+        <v>7.16731032969593E-5</v>
       </c>
       <c r="N195" s="13" t="s">
         <v>315</v>
@@ -12171,8 +12168,8 @@
       <c r="L196" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="M196" s="18">
-        <v>0.33501271027509022</v>
+      <c r="M196" s="16">
+        <v>6.5874168333613175E-5</v>
       </c>
       <c r="N196" s="15" t="s">
         <v>315</v>
@@ -12209,8 +12206,8 @@
       <c r="L197" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="M197" s="17">
-        <v>0.36941832185198081</v>
+      <c r="M197" s="14">
+        <v>7.2688616074594761E-5</v>
       </c>
       <c r="N197" s="13" t="s">
         <v>315</v>
@@ -12247,8 +12244,8 @@
       <c r="L198" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="M198" s="18">
-        <v>0.37817596677222742</v>
+      <c r="M198" s="16">
+        <v>7.4398606897170189E-5</v>
       </c>
       <c r="N198" s="15" t="s">
         <v>315</v>
@@ -12285,8 +12282,8 @@
       <c r="L199" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="M199" s="17">
-        <v>0.41715408429692269</v>
+      <c r="M199" s="14">
+        <v>8.1677611344249771E-5</v>
       </c>
       <c r="N199" s="13" t="s">
         <v>315</v>
@@ -12323,8 +12320,8 @@
       <c r="L200" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="M200" s="18">
-        <v>0.43427539551992828</v>
+      <c r="M200" s="16">
+        <v>8.5226802358369483E-5</v>
       </c>
       <c r="N200" s="15" t="s">
         <v>315</v>
@@ -12361,8 +12358,8 @@
       <c r="L201" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="M201" s="17">
-        <v>0.43302551680913098</v>
+      <c r="M201" s="14">
+        <v>8.4810105106083013E-5</v>
       </c>
       <c r="N201" s="13" t="s">
         <v>315</v>
@@ -12399,8 +12396,8 @@
       <c r="L202" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="M202" s="18">
-        <v>0.45407781530810681</v>
+      <c r="M202" s="16">
+        <v>8.8838587053924141E-5</v>
       </c>
       <c r="N202" s="15" t="s">
         <v>315</v>
@@ -12437,8 +12434,8 @@
       <c r="L203" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="M203" s="17">
-        <v>0.49908943110582238</v>
+      <c r="M203" s="14">
+        <v>9.7975155341739238E-5</v>
       </c>
       <c r="N203" s="13" t="s">
         <v>315</v>
@@ -12475,8 +12472,8 @@
       <c r="L204" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="M204" s="18">
-        <v>0.50699152439448458</v>
+      <c r="M204" s="16">
+        <v>9.9659307697034887E-5</v>
       </c>
       <c r="N204" s="15" t="s">
         <v>315</v>
@@ -12513,8 +12510,8 @@
       <c r="L205" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="M205" s="17">
-        <v>0.49499389580753311</v>
+      <c r="M205" s="14">
+        <v>9.6999745871973706E-5</v>
       </c>
       <c r="N205" s="13" t="s">
         <v>315</v>
@@ -12551,8 +12548,8 @@
       <c r="L206" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="M206" s="18">
-        <v>0.47267372849246519</v>
+      <c r="M206" s="16">
+        <v>9.278046638312208E-5</v>
       </c>
       <c r="N206" s="15" t="s">
         <v>315</v>
@@ -12589,8 +12586,8 @@
       <c r="L207" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="M207" s="17">
-        <v>0.45427574808218452</v>
+      <c r="M207" s="14">
+        <v>8.9265904113195233E-5</v>
       </c>
       <c r="N207" s="13" t="s">
         <v>315</v>
@@ -12627,8 +12624,8 @@
       <c r="L208" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="M208" s="18">
-        <v>0.3965139556975481</v>
+      <c r="M208" s="16">
+        <v>7.7945085978268396E-5</v>
       </c>
       <c r="N208" s="15" t="s">
         <v>315</v>
@@ -12665,8 +12662,8 @@
       <c r="L209" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="M209" s="17">
-        <v>0.3547047246954147</v>
+      <c r="M209" s="14">
+        <v>6.9278574138793633E-5</v>
       </c>
       <c r="N209" s="13" t="s">
         <v>315</v>
@@ -12703,8 +12700,8 @@
       <c r="L210" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="M210" s="18">
-        <v>0.31157097682985918</v>
+      <c r="M210" s="16">
+        <v>6.1020001593269213E-5</v>
       </c>
       <c r="N210" s="15" t="s">
         <v>315</v>
@@ -12741,8 +12738,8 @@
       <c r="L211" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="M211" s="17">
-        <v>0.30019452603738039</v>
+      <c r="M211" s="14">
+        <v>5.8699798922601972E-5</v>
       </c>
       <c r="N211" s="13" t="s">
         <v>315</v>
@@ -12779,8 +12776,8 @@
       <c r="L212" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="M212" s="18">
-        <v>0.2859810784579872</v>
+      <c r="M212" s="16">
+        <v>5.5712473961539501E-5</v>
       </c>
       <c r="N212" s="15" t="s">
         <v>315</v>
@@ -12817,8 +12814,8 @@
       <c r="L213" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="M213" s="17">
-        <v>0.27344468916467612</v>
+      <c r="M213" s="14">
+        <v>5.3337248971070392E-5</v>
       </c>
       <c r="N213" s="13" t="s">
         <v>315</v>
@@ -12855,8 +12852,8 @@
       <c r="L214" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="M214" s="18">
-        <v>0.2643766437578039</v>
+      <c r="M214" s="16">
+        <v>5.1701565102332203E-5</v>
       </c>
       <c r="N214" s="15" t="s">
         <v>315</v>
@@ -12893,8 +12890,8 @@
       <c r="L215" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="M215" s="17">
-        <v>0.24592097069754371</v>
+      <c r="M215" s="14">
+        <v>4.8002530079296523E-5</v>
       </c>
       <c r="N215" s="13" t="s">
         <v>315</v>
@@ -12931,8 +12928,8 @@
       <c r="L216" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="M216" s="18">
-        <v>0.26230134731250571</v>
+      <c r="M216" s="16">
+        <v>5.1477513517427971E-5</v>
       </c>
       <c r="N216" s="15" t="s">
         <v>315</v>
@@ -12969,8 +12966,8 @@
       <c r="L217" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="M217" s="17">
-        <v>0.32607442791477309</v>
+      <c r="M217" s="14">
+        <v>6.3833736994902454E-5</v>
       </c>
       <c r="N217" s="13" t="s">
         <v>315</v>
@@ -13007,8 +13004,8 @@
       <c r="L218" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="M218" s="18">
-        <v>0.30557678833010371</v>
+      <c r="M218" s="16">
+        <v>5.9631251064185757E-5</v>
       </c>
       <c r="N218" s="15" t="s">
         <v>315</v>
@@ -13045,8 +13042,8 @@
       <c r="L219" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="M219" s="17">
-        <v>162.24148140276483</v>
+      <c r="M219" s="14">
+        <v>3.5108047281445842E-2</v>
       </c>
       <c r="N219" s="13" t="s">
         <v>315</v>
@@ -13083,8 +13080,8 @@
       <c r="L220" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="M220" s="18">
-        <v>23.123570228680197</v>
+      <c r="M220" s="16">
+        <v>5.1388623374863272E-3</v>
       </c>
       <c r="N220" s="15" t="s">
         <v>315</v>
@@ -13121,8 +13118,8 @@
       <c r="L221" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="M221" s="17">
-        <v>23.097090747404433</v>
+      <c r="M221" s="14">
+        <v>5.1423390814532679E-3</v>
       </c>
       <c r="N221" s="13" t="s">
         <v>315</v>
@@ -13159,8 +13156,8 @@
       <c r="L222" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="M222" s="18">
-        <v>23.585465703913712</v>
+      <c r="M222" s="16">
+        <v>5.3006834806816764E-3</v>
       </c>
       <c r="N222" s="15" t="s">
         <v>315</v>
@@ -13197,8 +13194,8 @@
       <c r="L223" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="M223" s="17">
-        <v>139.60756072858356</v>
+      <c r="M223" s="14">
+        <v>3.0183637002565163E-2</v>
       </c>
       <c r="N223" s="13" t="s">
         <v>315</v>
@@ -13235,8 +13232,8 @@
       <c r="L224" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="M224" s="18">
-        <v>45.742216627882641</v>
+      <c r="M224" s="16">
+        <v>9.9639942965193701E-3</v>
       </c>
       <c r="N224" s="15" t="s">
         <v>315</v>
@@ -13273,8 +13270,8 @@
       <c r="L225" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="M225" s="17">
-        <v>22.688633450985318</v>
+      <c r="M225" s="14">
+        <v>4.8944778664868332E-3</v>
       </c>
       <c r="N225" s="13" t="s">
         <v>315</v>
@@ -13311,8 +13308,8 @@
       <c r="L226" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="M226" s="18">
-        <v>115.11192563523464</v>
+      <c r="M226" s="16">
+        <v>2.4876051668178877E-2</v>
       </c>
       <c r="N226" s="15" t="s">
         <v>315</v>
@@ -13349,8 +13346,8 @@
       <c r="L227" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="M227" s="17">
-        <v>1</v>
+      <c r="M227" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N227" s="13" t="s">
         <v>315</v>
@@ -13387,8 +13384,8 @@
       <c r="L228" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="M228" s="18">
-        <v>1</v>
+      <c r="M228" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N228" s="15" t="s">
         <v>315</v>
@@ -13425,8 +13422,8 @@
       <c r="L229" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="M229" s="17">
-        <v>1</v>
+      <c r="M229" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N229" s="13" t="s">
         <v>315</v>
@@ -13463,8 +13460,8 @@
       <c r="L230" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="M230" s="18">
-        <v>1</v>
+      <c r="M230" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N230" s="15" t="s">
         <v>315</v>
@@ -13501,8 +13498,8 @@
       <c r="L231" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="M231" s="17">
-        <v>1</v>
+      <c r="M231" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N231" s="13" t="s">
         <v>315</v>
@@ -13539,8 +13536,8 @@
       <c r="L232" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="M232" s="18">
-        <v>1</v>
+      <c r="M232" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N232" s="15" t="s">
         <v>315</v>
@@ -13577,8 +13574,8 @@
       <c r="L233" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="M233" s="17">
-        <v>0.86161720340781334</v>
+      <c r="M233" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N233" s="13" t="s">
         <v>315</v>
@@ -13615,8 +13612,8 @@
       <c r="L234" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="M234" s="18">
-        <v>0.86161720340781334</v>
+      <c r="M234" s="16">
+        <v>1.9124762777739999E-4</v>
       </c>
       <c r="N234" s="15" t="s">
         <v>315</v>
@@ -13653,8 +13650,8 @@
       <c r="L235" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="M235" s="17">
-        <v>0.86161720340781334</v>
+      <c r="M235" s="14">
+        <v>1.9124762777739999E-4</v>
       </c>
       <c r="N235" s="13" t="s">
         <v>315</v>
@@ -13691,8 +13688,8 @@
       <c r="L236" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="M236" s="18">
-        <v>0.86161720340781334</v>
+      <c r="M236" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N236" s="15" t="s">
         <v>315</v>
@@ -13729,8 +13726,8 @@
       <c r="L237" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="M237" s="17">
-        <v>0.86161720340781334</v>
+      <c r="M237" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N237" s="13" t="s">
         <v>315</v>
@@ -13767,8 +13764,8 @@
       <c r="L238" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="M238" s="18">
-        <v>1</v>
+      <c r="M238" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N238" s="15" t="s">
         <v>315</v>
@@ -13805,8 +13802,8 @@
       <c r="L239" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="M239" s="17">
-        <v>1</v>
+      <c r="M239" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N239" s="13" t="s">
         <v>315</v>
@@ -13843,8 +13840,8 @@
       <c r="L240" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="M240" s="18">
-        <v>1</v>
+      <c r="M240" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N240" s="15" t="s">
         <v>315</v>
@@ -13881,8 +13878,8 @@
       <c r="L241" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="M241" s="17">
-        <v>1</v>
+      <c r="M241" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N241" s="13" t="s">
         <v>315</v>
@@ -13919,8 +13916,8 @@
       <c r="L242" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="M242" s="18">
-        <v>1</v>
+      <c r="M242" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N242" s="15" t="s">
         <v>315</v>
@@ -13957,8 +13954,8 @@
       <c r="L243" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="M243" s="17">
-        <v>1</v>
+      <c r="M243" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N243" s="13" t="s">
         <v>315</v>
@@ -13995,8 +13992,8 @@
       <c r="L244" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="M244" s="18">
-        <v>1</v>
+      <c r="M244" s="16">
+        <v>2.220031513792E-4</v>
       </c>
       <c r="N244" s="15" t="s">
         <v>315</v>
@@ -14033,8 +14030,8 @@
       <c r="L245" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="M245" s="17">
-        <v>1</v>
+      <c r="M245" s="14">
+        <v>2.2193925243999999E-4</v>
       </c>
       <c r="N245" s="13" t="s">
         <v>315</v>
@@ -14071,8 +14068,8 @@
       <c r="L246" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="M246" s="18">
-        <v>0.99519584608684342</v>
+      <c r="M246" s="16">
+        <v>2.2047603816469999E-4</v>
       </c>
       <c r="N246" s="15" t="s">
         <v>315</v>
@@ -14109,8 +14106,8 @@
       <c r="L247" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="M247" s="17">
-        <v>0.97323228126513139</v>
+      <c r="M247" s="14">
+        <v>2.096494333247E-4</v>
       </c>
       <c r="N247" s="13" t="s">
         <v>315</v>
@@ -14147,8 +14144,8 @@
       <c r="L248" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="M248" s="18">
-        <v>0.99044114240909076</v>
+      <c r="M248" s="16">
+        <v>2.129813729659E-4</v>
       </c>
       <c r="N248" s="15" t="s">
         <v>315</v>
@@ -14185,8 +14182,8 @@
       <c r="L249" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="M249" s="17">
-        <v>0.99863761271506601</v>
+      <c r="M249" s="14">
+        <v>2.2136679166669999E-4</v>
       </c>
       <c r="N249" s="13" t="s">
         <v>315</v>
@@ -14223,8 +14220,8 @@
       <c r="L250" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="M250" s="18">
-        <v>0.99467755468157082</v>
+      <c r="M250" s="16">
+        <v>2.2033693195879999E-4</v>
       </c>
       <c r="N250" s="15" t="s">
         <v>315</v>
@@ -14243,7 +14240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327B26C1-D6F6-4345-B1A4-25EB72FE81BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE00299A-44FE-4630-8344-E3063D55A1BF}">
   <dimension ref="B2:O483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
